--- a/combined_analysis/intersectional-genes/Rho_up & Exp_up & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_up & Exp_up & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>chr</t>
   </si>
@@ -63,46 +63,85 @@
     <t>ensembl</t>
   </si>
   <si>
+    <t>chr7</t>
+  </si>
+  <si>
     <t>chr8</t>
   </si>
   <si>
+    <t>chr20</t>
+  </si>
+  <si>
     <t>chr1</t>
   </si>
   <si>
+    <t>chr19</t>
+  </si>
+  <si>
     <t>chr17</t>
   </si>
   <si>
+    <t>NUDCD3</t>
+  </si>
+  <si>
     <t>FDFT1</t>
   </si>
   <si>
+    <t>TTI1</t>
+  </si>
+  <si>
     <t>MECR</t>
   </si>
   <si>
+    <t>KLF16</t>
+  </si>
+  <si>
+    <t>ZNF787</t>
+  </si>
+  <si>
+    <t>MIOS</t>
+  </si>
+  <si>
     <t>ELP5</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>-</t>
+    <t>49</t>
   </si>
   <si>
     <t>32,67</t>
   </si>
   <si>
-    <t>49</t>
+    <t>0</t>
   </si>
   <si>
     <t>0,6625</t>
   </si>
   <si>
-    <t>0</t>
+    <t>ENSG00000015676.18</t>
   </si>
   <si>
     <t>ENSG00000079459.13</t>
   </si>
   <si>
+    <t>ENSG00000101407.13</t>
+  </si>
+  <si>
     <t>ENSG00000116353.16</t>
+  </si>
+  <si>
+    <t>ENSG00000129911.9</t>
+  </si>
+  <si>
+    <t>ENSG00000142409.6</t>
+  </si>
+  <si>
+    <t>ENSG00000164654.16</t>
   </si>
   <si>
     <t>ENSG00000170291.15</t>
@@ -577,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,46 +674,46 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>11831763</v>
+        <v>44385065</v>
       </c>
       <c r="C2">
-        <v>11838454</v>
+        <v>44385114</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>11831763</v>
+        <v>44385065</v>
       </c>
       <c r="H2">
-        <v>11838454</v>
+        <v>44385114</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M2">
-        <v>-4.57985237784278</v>
+        <v>-1.06305298663162</v>
       </c>
       <c r="N2">
-        <v>1.04091754303484E-05</v>
+        <v>0.0004747063536008059</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -682,46 +721,46 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>29193006</v>
+        <v>11831763</v>
       </c>
       <c r="C3">
-        <v>29193055</v>
+        <v>11838454</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>29193006</v>
+        <v>11831763</v>
       </c>
       <c r="H3">
-        <v>29193055</v>
+        <v>11838454</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>-2.86816313774459</v>
+        <v>-4.57985237784278</v>
       </c>
       <c r="N3">
-        <v>0.000394359381762799</v>
+        <v>1.04091754303484E-05</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -729,25 +768,25 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>7259792</v>
+        <v>37983504</v>
       </c>
       <c r="C4">
-        <v>7259841</v>
+        <v>37983553</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>7259792</v>
+        <v>37983504</v>
       </c>
       <c r="H4">
-        <v>7259841</v>
+        <v>37983553</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -756,19 +795,442 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>5.402677381872281</v>
+      </c>
+      <c r="N4">
+        <v>0.0007189404614443839</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>38011518</v>
+      </c>
+      <c r="C5">
+        <v>38011567</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>38011518</v>
+      </c>
+      <c r="H5">
+        <v>38011567</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>0.753832132381527</v>
+      </c>
+      <c r="N5">
+        <v>0.00151263453385619</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>38012909</v>
+      </c>
+      <c r="C6">
+        <v>38012958</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>38012909</v>
+      </c>
+      <c r="H6">
+        <v>38012958</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>-1.49392502530864</v>
+      </c>
+      <c r="N6">
+        <v>2.84819308030704E-05</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>38013307</v>
+      </c>
+      <c r="C7">
+        <v>38013356</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>38013307</v>
+      </c>
+      <c r="H7">
+        <v>38013356</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7">
+        <v>-0.833504538254867</v>
+      </c>
+      <c r="N7">
+        <v>0.00303552350787406</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>29193006</v>
+      </c>
+      <c r="C8">
+        <v>29193055</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>29193006</v>
+      </c>
+      <c r="H8">
+        <v>29193055</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>-2.86816313774459</v>
+      </c>
+      <c r="N8">
+        <v>0.000394359381762799</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1854475</v>
+      </c>
+      <c r="C9">
+        <v>1854524</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>1854475</v>
+      </c>
+      <c r="H9">
+        <v>1854524</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9">
+        <v>-1.84054963339749</v>
+      </c>
+      <c r="N9">
+        <v>0.000273844330500483</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1854574</v>
+      </c>
+      <c r="C10">
+        <v>1854623</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>1854574</v>
+      </c>
+      <c r="H10">
+        <v>1854623</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>2.96398357523936</v>
+      </c>
+      <c r="N10">
+        <v>0.00435014396607925</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>56087814</v>
+      </c>
+      <c r="C11">
+        <v>56087863</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="M4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>56087814</v>
+      </c>
+      <c r="H11">
+        <v>56087863</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11">
+        <v>-1.59127394180541</v>
+      </c>
+      <c r="N11">
+        <v>0.00353968955318717</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>7573414</v>
+      </c>
+      <c r="C12">
+        <v>7573463</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>7573414</v>
+      </c>
+      <c r="H12">
+        <v>7573463</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12">
+        <v>-1.89154893983387</v>
+      </c>
+      <c r="N12">
+        <v>0.0044283860409291</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7259792</v>
+      </c>
+      <c r="C13">
+        <v>7259841</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>7259792</v>
+      </c>
+      <c r="H13">
+        <v>7259841</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13">
         <v>-5.09986642781483</v>
       </c>
-      <c r="N4">
+      <c r="N13">
         <v>6.583564936402099E-05</v>
       </c>
-      <c r="O4" t="s">
-        <v>29</v>
+      <c r="O13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,87 +1248,87 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.861</v>
@@ -913,132 +1375,433 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0.879</v>
+        <v>1.392</v>
       </c>
       <c r="C3">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="D3">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
-        <v>0.766</v>
+        <v>0.729</v>
       </c>
       <c r="F3">
-        <v>-0.221</v>
+        <v>0.202</v>
       </c>
       <c r="G3">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="H3">
-        <v>0.259</v>
+        <v>0.099</v>
       </c>
       <c r="I3">
-        <v>0.397</v>
+        <v>0.633</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>-0.288</v>
       </c>
       <c r="K3">
-        <v>0.394</v>
+        <v>0.221</v>
       </c>
       <c r="L3">
-        <v>0.782</v>
+        <v>-0.076</v>
       </c>
       <c r="M3">
-        <v>0.014</v>
+        <v>0.73</v>
+      </c>
+      <c r="N3">
+        <v>-0.361</v>
+      </c>
+      <c r="O3">
+        <v>0.045</v>
+      </c>
+      <c r="P3">
+        <v>-0.167</v>
+      </c>
+      <c r="Q3">
+        <v>0.123</v>
+      </c>
+      <c r="R3">
+        <v>-0.224</v>
+      </c>
+      <c r="S3">
+        <v>0.17</v>
+      </c>
+      <c r="T3">
+        <v>-0.041</v>
+      </c>
+      <c r="U3">
+        <v>0.763</v>
+      </c>
+      <c r="V3">
+        <v>-0.194</v>
+      </c>
+      <c r="W3">
+        <v>0.172</v>
+      </c>
+      <c r="X3">
+        <v>-0.06</v>
+      </c>
+      <c r="Y3">
+        <v>0.621</v>
       </c>
       <c r="Z3">
-        <v>-0.047</v>
+        <v>0.215</v>
       </c>
       <c r="AA3">
-        <v>0.978</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>1.392</v>
+        <v>0.842</v>
       </c>
       <c r="C4">
+        <v>0.011</v>
+      </c>
+      <c r="D4">
+        <v>-0.214</v>
+      </c>
+      <c r="E4">
+        <v>0.376</v>
+      </c>
+      <c r="F4">
+        <v>-0.422</v>
+      </c>
+      <c r="G4">
+        <v>0.073</v>
+      </c>
+      <c r="H4">
+        <v>-0.331</v>
+      </c>
+      <c r="I4">
+        <v>0.095</v>
+      </c>
+      <c r="J4">
+        <v>-0.184</v>
+      </c>
+      <c r="K4">
+        <v>0.338</v>
+      </c>
+      <c r="L4">
+        <v>-0.016</v>
+      </c>
+      <c r="M4">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="N4">
+        <v>-0.437</v>
+      </c>
+      <c r="O4">
+        <v>0.002</v>
+      </c>
+      <c r="P4">
+        <v>-0.199</v>
+      </c>
+      <c r="Q4">
+        <v>0.08</v>
+      </c>
+      <c r="R4">
+        <v>-0.218</v>
+      </c>
+      <c r="S4">
+        <v>0.049</v>
+      </c>
+      <c r="T4">
+        <v>-0.184</v>
+      </c>
+      <c r="U4">
+        <v>0.078</v>
+      </c>
+      <c r="V4">
+        <v>-0.29</v>
+      </c>
+      <c r="W4">
+        <v>0.014</v>
+      </c>
+      <c r="X4">
+        <v>0.024</v>
+      </c>
+      <c r="Y4">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0.514</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-0.313</v>
+      </c>
+      <c r="E5">
+        <v>0.051</v>
+      </c>
+      <c r="F5">
+        <v>-0.466</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>-0.054</v>
+      </c>
+      <c r="I5">
+        <v>0.769</v>
+      </c>
+      <c r="J5">
+        <v>0.004</v>
+      </c>
+      <c r="K5">
+        <v>0.986</v>
+      </c>
+      <c r="L5">
+        <v>-0.238</v>
+      </c>
+      <c r="M5">
+        <v>0.27</v>
+      </c>
+      <c r="N5">
+        <v>-0.747</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0.255</v>
+      </c>
+      <c r="Q5">
+        <v>0.01</v>
+      </c>
+      <c r="R5">
+        <v>-0.495</v>
+      </c>
+      <c r="S5">
+        <v>0.002</v>
+      </c>
+      <c r="T5">
+        <v>-0.261</v>
+      </c>
+      <c r="U5">
+        <v>0.055</v>
+      </c>
+      <c r="V5">
+        <v>-0.252</v>
+      </c>
+      <c r="W5">
+        <v>0.08</v>
+      </c>
+      <c r="X5">
+        <v>-0.346</v>
+      </c>
+      <c r="Y5">
+        <v>0.026</v>
+      </c>
+      <c r="Z5">
+        <v>0.698</v>
+      </c>
+      <c r="AA5">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0.879</v>
+      </c>
+      <c r="C6">
+        <v>0.005</v>
+      </c>
+      <c r="D6">
+        <v>0.075</v>
+      </c>
+      <c r="E6">
+        <v>0.766</v>
+      </c>
+      <c r="F6">
+        <v>-0.221</v>
+      </c>
+      <c r="G6">
+        <v>0.37</v>
+      </c>
+      <c r="H6">
+        <v>0.259</v>
+      </c>
+      <c r="I6">
+        <v>0.397</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>0.394</v>
+      </c>
+      <c r="L6">
+        <v>0.782</v>
+      </c>
+      <c r="M6">
+        <v>0.014</v>
+      </c>
+      <c r="Z6">
+        <v>-0.047</v>
+      </c>
+      <c r="AA6">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0.641</v>
+      </c>
+      <c r="C7">
+        <v>0.002</v>
+      </c>
+      <c r="D7">
+        <v>-0.133</v>
+      </c>
+      <c r="E7">
+        <v>0.492</v>
+      </c>
+      <c r="F7">
+        <v>-0.141</v>
+      </c>
+      <c r="G7">
+        <v>0.513</v>
+      </c>
+      <c r="H7">
+        <v>-0.047</v>
+      </c>
+      <c r="I7">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.293</v>
+      </c>
+      <c r="K7">
+        <v>0.146</v>
+      </c>
+      <c r="L7">
+        <v>0.373</v>
+      </c>
+      <c r="M7">
+        <v>0.066</v>
+      </c>
+      <c r="Z7">
+        <v>-0.26</v>
+      </c>
+      <c r="AA7">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.674</v>
+      </c>
+      <c r="C8">
         <v>0.001</v>
       </c>
-      <c r="D4">
-        <v>0.05</v>
-      </c>
-      <c r="E4">
-        <v>0.729</v>
-      </c>
-      <c r="F4">
-        <v>0.202</v>
-      </c>
-      <c r="G4">
-        <v>0.35</v>
-      </c>
-      <c r="H4">
-        <v>0.099</v>
-      </c>
-      <c r="I4">
-        <v>0.633</v>
-      </c>
-      <c r="J4">
-        <v>-0.288</v>
-      </c>
-      <c r="K4">
-        <v>0.221</v>
-      </c>
-      <c r="L4">
-        <v>-0.076</v>
-      </c>
-      <c r="M4">
-        <v>0.73</v>
-      </c>
-      <c r="N4">
-        <v>-0.361</v>
-      </c>
-      <c r="O4">
-        <v>0.045</v>
-      </c>
-      <c r="P4">
-        <v>-0.167</v>
-      </c>
-      <c r="Q4">
-        <v>0.123</v>
-      </c>
-      <c r="R4">
-        <v>-0.224</v>
-      </c>
-      <c r="S4">
-        <v>0.17</v>
-      </c>
-      <c r="T4">
-        <v>-0.041</v>
-      </c>
-      <c r="U4">
-        <v>0.763</v>
-      </c>
-      <c r="V4">
-        <v>-0.194</v>
-      </c>
-      <c r="W4">
-        <v>0.172</v>
-      </c>
-      <c r="X4">
-        <v>-0.06</v>
-      </c>
-      <c r="Y4">
-        <v>0.621</v>
-      </c>
-      <c r="Z4">
-        <v>0.215</v>
-      </c>
-      <c r="AA4">
-        <v>0.464</v>
+      <c r="D8">
+        <v>0.048</v>
+      </c>
+      <c r="E8">
+        <v>0.858</v>
+      </c>
+      <c r="F8">
+        <v>-0.354</v>
+      </c>
+      <c r="G8">
+        <v>0.238</v>
+      </c>
+      <c r="H8">
+        <v>0.113</v>
+      </c>
+      <c r="I8">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="J8">
+        <v>-0.36</v>
+      </c>
+      <c r="K8">
+        <v>0.308</v>
+      </c>
+      <c r="L8">
+        <v>-0.433</v>
+      </c>
+      <c r="M8">
+        <v>0.111</v>
+      </c>
+      <c r="Z8">
+        <v>-0.183</v>
+      </c>
+      <c r="AA8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>1.066</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-0.394</v>
+      </c>
+      <c r="E9">
+        <v>0.108</v>
+      </c>
+      <c r="F9">
+        <v>-0.138</v>
+      </c>
+      <c r="G9">
+        <v>0.664</v>
+      </c>
+      <c r="H9">
+        <v>-0.08400000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.701</v>
+      </c>
+      <c r="J9">
+        <v>-0.279</v>
+      </c>
+      <c r="K9">
+        <v>0.267</v>
+      </c>
+      <c r="L9">
+        <v>-0.201</v>
+      </c>
+      <c r="M9">
+        <v>0.347</v>
+      </c>
+      <c r="Z9">
+        <v>0.504</v>
+      </c>
+      <c r="AA9">
+        <v>0.745</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1059,45 +1822,45 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.104</v>
@@ -1138,84 +1901,289 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0.233</v>
+        <v>0.124</v>
       </c>
       <c r="C3">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="D3">
-        <v>0.136</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0.083</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <v>0.078</v>
+        <v>0.203</v>
       </c>
       <c r="G3">
-        <v>0.311</v>
+        <v>0.016</v>
       </c>
       <c r="H3">
-        <v>-0.191</v>
+        <v>-0.151</v>
       </c>
       <c r="I3">
-        <v>0.442</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.489</v>
+        <v>-0.218</v>
       </c>
       <c r="K3">
-        <v>0.06</v>
+        <v>0.001</v>
       </c>
       <c r="L3">
-        <v>-0.489</v>
+        <v>-0.218</v>
       </c>
       <c r="M3">
-        <v>0.06</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>0.124</v>
+        <v>0.192</v>
       </c>
       <c r="C4">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.244</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.213</v>
       </c>
       <c r="F4">
-        <v>0.203</v>
+        <v>0.259</v>
       </c>
       <c r="G4">
-        <v>0.016</v>
+        <v>0.099</v>
       </c>
       <c r="H4">
-        <v>-0.151</v>
+        <v>-0.4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="J4">
-        <v>-0.218</v>
+        <v>-0.296</v>
       </c>
       <c r="K4">
+        <v>0.044</v>
+      </c>
+      <c r="L4">
+        <v>-0.296</v>
+      </c>
+      <c r="M4">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0.11</v>
+      </c>
+      <c r="C5">
+        <v>0.134</v>
+      </c>
+      <c r="D5">
+        <v>0.186</v>
+      </c>
+      <c r="E5">
+        <v>0.135</v>
+      </c>
+      <c r="F5">
+        <v>0.382</v>
+      </c>
+      <c r="G5">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="H5">
+        <v>-0.476</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-0.829</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>-0.829</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0.233</v>
+      </c>
+      <c r="C6">
+        <v>0.004</v>
+      </c>
+      <c r="D6">
+        <v>0.136</v>
+      </c>
+      <c r="E6">
+        <v>0.083</v>
+      </c>
+      <c r="F6">
+        <v>0.078</v>
+      </c>
+      <c r="G6">
+        <v>0.311</v>
+      </c>
+      <c r="H6">
+        <v>-0.191</v>
+      </c>
+      <c r="I6">
+        <v>0.442</v>
+      </c>
+      <c r="J6">
+        <v>-0.489</v>
+      </c>
+      <c r="K6">
+        <v>0.06</v>
+      </c>
+      <c r="L6">
+        <v>-0.489</v>
+      </c>
+      <c r="M6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0.148</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.317</v>
+      </c>
+      <c r="E7">
+        <v>0.004</v>
+      </c>
+      <c r="F7">
+        <v>0.414</v>
+      </c>
+      <c r="G7">
         <v>0.001</v>
       </c>
-      <c r="L4">
-        <v>-0.218</v>
-      </c>
-      <c r="M4">
+      <c r="H7">
+        <v>-0.114</v>
+      </c>
+      <c r="I7">
         <v>0.001</v>
+      </c>
+      <c r="J7">
+        <v>-0.196</v>
+      </c>
+      <c r="K7">
+        <v>0.001</v>
+      </c>
+      <c r="L7">
+        <v>-0.196</v>
+      </c>
+      <c r="M7">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.165</v>
+      </c>
+      <c r="C8">
+        <v>0.005</v>
+      </c>
+      <c r="D8">
+        <v>0.204</v>
+      </c>
+      <c r="E8">
+        <v>0.005</v>
+      </c>
+      <c r="F8">
+        <v>0.283</v>
+      </c>
+      <c r="G8">
+        <v>0.02</v>
+      </c>
+      <c r="H8">
+        <v>-0.06900000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.001</v>
+      </c>
+      <c r="J8">
+        <v>-0.108</v>
+      </c>
+      <c r="K8">
+        <v>0.103</v>
+      </c>
+      <c r="L8">
+        <v>-0.108</v>
+      </c>
+      <c r="M8">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.114</v>
+      </c>
+      <c r="C9">
+        <v>0.046</v>
+      </c>
+      <c r="D9">
+        <v>0.244</v>
+      </c>
+      <c r="E9">
+        <v>0.039</v>
+      </c>
+      <c r="F9">
+        <v>0.246</v>
+      </c>
+      <c r="G9">
+        <v>0.117</v>
+      </c>
+      <c r="H9">
+        <v>-0.068</v>
+      </c>
+      <c r="I9">
+        <v>0.001</v>
+      </c>
+      <c r="J9">
+        <v>-0.089</v>
+      </c>
+      <c r="K9">
+        <v>0.485</v>
+      </c>
+      <c r="L9">
+        <v>-0.089</v>
+      </c>
+      <c r="M9">
+        <v>0.485</v>
       </c>
     </row>
   </sheetData>

--- a/combined_analysis/intersectional-genes/Rho_up & Exp_up & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_up & Exp_up & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>chr</t>
   </si>
@@ -181,42 +181,6 @@
   </si>
   <si>
     <t>Exp.thp1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.pval</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.pval</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.pval</t>
   </si>
   <si>
     <t>TE.Estimate_treatmentDRUG</t>
@@ -1240,13 +1204,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1289,480 +1253,336 @@
       <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>0.861</v>
+        <v>1.072</v>
       </c>
       <c r="C2">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D2">
-        <v>-0.184</v>
+        <v>0.075</v>
       </c>
       <c r="E2">
-        <v>0.423</v>
+        <v>0.766</v>
       </c>
       <c r="F2">
-        <v>-0.523</v>
+        <v>-0.221</v>
       </c>
       <c r="G2">
-        <v>0.055</v>
+        <v>0.37</v>
       </c>
       <c r="H2">
-        <v>-0.198</v>
+        <v>0.259</v>
       </c>
       <c r="I2">
-        <v>0.441</v>
+        <v>0.397</v>
       </c>
       <c r="J2">
-        <v>-0.776</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>0.002</v>
+        <v>0.394</v>
       </c>
       <c r="L2">
-        <v>0.198</v>
+        <v>0.782</v>
       </c>
       <c r="M2">
-        <v>0.632</v>
-      </c>
-      <c r="Z2">
-        <v>-0.044</v>
-      </c>
-      <c r="AA2">
-        <v>0.985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>0.014</v>
+      </c>
+      <c r="N2">
+        <v>-0.047</v>
+      </c>
+      <c r="O2">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>1.392</v>
+        <v>0.962</v>
       </c>
       <c r="C3">
         <v>0.001</v>
       </c>
       <c r="D3">
+        <v>0.048</v>
+      </c>
+      <c r="E3">
+        <v>0.858</v>
+      </c>
+      <c r="F3">
+        <v>-0.354</v>
+      </c>
+      <c r="G3">
+        <v>0.238</v>
+      </c>
+      <c r="H3">
+        <v>0.113</v>
+      </c>
+      <c r="I3">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="J3">
+        <v>-0.36</v>
+      </c>
+      <c r="K3">
+        <v>0.308</v>
+      </c>
+      <c r="L3">
+        <v>-0.433</v>
+      </c>
+      <c r="M3">
+        <v>0.111</v>
+      </c>
+      <c r="N3">
+        <v>-0.183</v>
+      </c>
+      <c r="O3">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.788</v>
+      </c>
+      <c r="C4">
+        <v>0.001</v>
+      </c>
+      <c r="D4">
         <v>0.05</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.729</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.202</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>0.35</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0.099</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>0.633</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>-0.288</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>0.221</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-0.076</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>0.73</v>
       </c>
-      <c r="N3">
-        <v>-0.361</v>
-      </c>
-      <c r="O3">
-        <v>0.045</v>
-      </c>
-      <c r="P3">
-        <v>-0.167</v>
-      </c>
-      <c r="Q3">
-        <v>0.123</v>
-      </c>
-      <c r="R3">
-        <v>-0.224</v>
-      </c>
-      <c r="S3">
-        <v>0.17</v>
-      </c>
-      <c r="T3">
-        <v>-0.041</v>
-      </c>
-      <c r="U3">
-        <v>0.763</v>
-      </c>
-      <c r="V3">
-        <v>-0.194</v>
-      </c>
-      <c r="W3">
-        <v>0.172</v>
-      </c>
-      <c r="X3">
-        <v>-0.06</v>
-      </c>
-      <c r="Y3">
-        <v>0.621</v>
-      </c>
-      <c r="Z3">
+      <c r="N4">
         <v>0.215</v>
       </c>
-      <c r="AA3">
+      <c r="O4">
         <v>0.464</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1.6</v>
+      </c>
+      <c r="C5">
+        <v>0.006</v>
+      </c>
+      <c r="D5">
+        <v>-0.184</v>
+      </c>
+      <c r="E5">
+        <v>0.423</v>
+      </c>
+      <c r="F5">
+        <v>-0.523</v>
+      </c>
+      <c r="G5">
+        <v>0.055</v>
+      </c>
+      <c r="H5">
+        <v>-0.198</v>
+      </c>
+      <c r="I5">
+        <v>0.441</v>
+      </c>
+      <c r="J5">
+        <v>-0.776</v>
+      </c>
+      <c r="K5">
+        <v>0.002</v>
+      </c>
+      <c r="L5">
+        <v>0.198</v>
+      </c>
+      <c r="M5">
+        <v>0.632</v>
+      </c>
+      <c r="N5">
+        <v>-0.044</v>
+      </c>
+      <c r="O5">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0.626</v>
+      </c>
+      <c r="C6">
+        <v>0.002</v>
+      </c>
+      <c r="D6">
+        <v>-0.133</v>
+      </c>
+      <c r="E6">
+        <v>0.492</v>
+      </c>
+      <c r="F6">
+        <v>-0.141</v>
+      </c>
+      <c r="G6">
+        <v>0.513</v>
+      </c>
+      <c r="H6">
+        <v>-0.047</v>
+      </c>
+      <c r="I6">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.293</v>
+      </c>
+      <c r="K6">
+        <v>0.146</v>
+      </c>
+      <c r="L6">
+        <v>0.373</v>
+      </c>
+      <c r="M6">
+        <v>0.066</v>
+      </c>
+      <c r="N6">
+        <v>-0.26</v>
+      </c>
+      <c r="O6">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>0.842</v>
-      </c>
-      <c r="C4">
+      <c r="B7">
+        <v>0.537</v>
+      </c>
+      <c r="C7">
         <v>0.011</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>-0.214</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>0.376</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>-0.422</v>
       </c>
-      <c r="G4">
+      <c r="G7">
         <v>0.073</v>
       </c>
-      <c r="H4">
+      <c r="H7">
         <v>-0.331</v>
       </c>
-      <c r="I4">
+      <c r="I7">
         <v>0.095</v>
       </c>
-      <c r="J4">
+      <c r="J7">
         <v>-0.184</v>
       </c>
-      <c r="K4">
+      <c r="K7">
         <v>0.338</v>
       </c>
-      <c r="L4">
+      <c r="L7">
         <v>-0.016</v>
       </c>
-      <c r="M4">
+      <c r="M7">
         <v>0.9330000000000001</v>
       </c>
-      <c r="N4">
-        <v>-0.437</v>
-      </c>
-      <c r="O4">
-        <v>0.002</v>
-      </c>
-      <c r="P4">
-        <v>-0.199</v>
-      </c>
-      <c r="Q4">
-        <v>0.08</v>
-      </c>
-      <c r="R4">
-        <v>-0.218</v>
-      </c>
-      <c r="S4">
-        <v>0.049</v>
-      </c>
-      <c r="T4">
-        <v>-0.184</v>
-      </c>
-      <c r="U4">
-        <v>0.078</v>
-      </c>
-      <c r="V4">
-        <v>-0.29</v>
-      </c>
-      <c r="W4">
-        <v>0.014</v>
-      </c>
-      <c r="X4">
-        <v>0.024</v>
-      </c>
-      <c r="Y4">
-        <v>0.772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>0.514</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B8">
+        <v>0.33</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>-0.313</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>0.051</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>-0.466</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>0.01</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>-0.054</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>0.769</v>
       </c>
-      <c r="J5">
+      <c r="J8">
         <v>0.004</v>
       </c>
-      <c r="K5">
+      <c r="K8">
         <v>0.986</v>
       </c>
-      <c r="L5">
+      <c r="L8">
         <v>-0.238</v>
       </c>
-      <c r="M5">
+      <c r="M8">
         <v>0.27</v>
       </c>
-      <c r="N5">
-        <v>-0.747</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>-0.255</v>
-      </c>
-      <c r="Q5">
-        <v>0.01</v>
-      </c>
-      <c r="R5">
-        <v>-0.495</v>
-      </c>
-      <c r="S5">
-        <v>0.002</v>
-      </c>
-      <c r="T5">
-        <v>-0.261</v>
-      </c>
-      <c r="U5">
-        <v>0.055</v>
-      </c>
-      <c r="V5">
-        <v>-0.252</v>
-      </c>
-      <c r="W5">
-        <v>0.08</v>
-      </c>
-      <c r="X5">
-        <v>-0.346</v>
-      </c>
-      <c r="Y5">
-        <v>0.026</v>
-      </c>
-      <c r="Z5">
+      <c r="N8">
         <v>0.698</v>
       </c>
-      <c r="AA5">
+      <c r="O8">
         <v>0.333</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>0.879</v>
-      </c>
-      <c r="C6">
-        <v>0.005</v>
-      </c>
-      <c r="D6">
-        <v>0.075</v>
-      </c>
-      <c r="E6">
-        <v>0.766</v>
-      </c>
-      <c r="F6">
-        <v>-0.221</v>
-      </c>
-      <c r="G6">
-        <v>0.37</v>
-      </c>
-      <c r="H6">
-        <v>0.259</v>
-      </c>
-      <c r="I6">
-        <v>0.397</v>
-      </c>
-      <c r="J6">
-        <v>0.2</v>
-      </c>
-      <c r="K6">
-        <v>0.394</v>
-      </c>
-      <c r="L6">
-        <v>0.782</v>
-      </c>
-      <c r="M6">
-        <v>0.014</v>
-      </c>
-      <c r="Z6">
-        <v>-0.047</v>
-      </c>
-      <c r="AA6">
-        <v>0.978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>0.641</v>
-      </c>
-      <c r="C7">
-        <v>0.002</v>
-      </c>
-      <c r="D7">
-        <v>-0.133</v>
-      </c>
-      <c r="E7">
-        <v>0.492</v>
-      </c>
-      <c r="F7">
-        <v>-0.141</v>
-      </c>
-      <c r="G7">
-        <v>0.513</v>
-      </c>
-      <c r="H7">
-        <v>-0.047</v>
-      </c>
-      <c r="I7">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0.293</v>
-      </c>
-      <c r="K7">
-        <v>0.146</v>
-      </c>
-      <c r="L7">
-        <v>0.373</v>
-      </c>
-      <c r="M7">
-        <v>0.066</v>
-      </c>
-      <c r="Z7">
-        <v>-0.26</v>
-      </c>
-      <c r="AA7">
-        <v>0.842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>0.674</v>
-      </c>
-      <c r="C8">
-        <v>0.001</v>
-      </c>
-      <c r="D8">
-        <v>0.048</v>
-      </c>
-      <c r="E8">
-        <v>0.858</v>
-      </c>
-      <c r="F8">
-        <v>-0.354</v>
-      </c>
-      <c r="G8">
-        <v>0.238</v>
-      </c>
-      <c r="H8">
-        <v>0.113</v>
-      </c>
-      <c r="I8">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="J8">
-        <v>-0.36</v>
-      </c>
-      <c r="K8">
-        <v>0.308</v>
-      </c>
-      <c r="L8">
-        <v>-0.433</v>
-      </c>
-      <c r="M8">
-        <v>0.111</v>
-      </c>
-      <c r="Z8">
-        <v>-0.183</v>
-      </c>
-      <c r="AA8">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9">
-        <v>1.066</v>
+        <v>1.306</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1797,10 +1617,10 @@
       <c r="M9">
         <v>0.347</v>
       </c>
-      <c r="Z9">
+      <c r="N9">
         <v>0.504</v>
       </c>
-      <c r="AA9">
+      <c r="O9">
         <v>0.745</v>
       </c>
     </row>
@@ -1822,327 +1642,327 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>0.104</v>
+        <v>0.233</v>
       </c>
       <c r="C2">
-        <v>0.234</v>
+        <v>0.004</v>
       </c>
       <c r="D2">
-        <v>0.126</v>
+        <v>0.136</v>
       </c>
       <c r="E2">
-        <v>0.244</v>
+        <v>0.083</v>
       </c>
       <c r="F2">
-        <v>0.245</v>
+        <v>0.078</v>
       </c>
       <c r="G2">
-        <v>0.124</v>
+        <v>0.311</v>
       </c>
       <c r="H2">
-        <v>-0.14</v>
+        <v>-0.191</v>
       </c>
       <c r="I2">
-        <v>0.096</v>
+        <v>0.442</v>
       </c>
       <c r="J2">
-        <v>-0.178</v>
+        <v>-0.489</v>
       </c>
       <c r="K2">
-        <v>0.115</v>
+        <v>0.06</v>
       </c>
       <c r="L2">
-        <v>-0.178</v>
+        <v>-0.489</v>
       </c>
       <c r="M2">
-        <v>0.115</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>0.124</v>
+        <v>0.165</v>
       </c>
       <c r="C3">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="F3">
-        <v>0.203</v>
+        <v>0.283</v>
       </c>
       <c r="G3">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="H3">
-        <v>-0.151</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="J3">
-        <v>-0.218</v>
+        <v>-0.108</v>
       </c>
       <c r="K3">
-        <v>0.001</v>
+        <v>0.103</v>
       </c>
       <c r="L3">
-        <v>-0.218</v>
+        <v>-0.108</v>
       </c>
       <c r="M3">
-        <v>0.001</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>0.192</v>
+        <v>0.124</v>
       </c>
       <c r="C4">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="D4">
-        <v>0.244</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.213</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <v>0.259</v>
+        <v>0.203</v>
       </c>
       <c r="G4">
-        <v>0.099</v>
+        <v>0.016</v>
       </c>
       <c r="H4">
-        <v>-0.4</v>
+        <v>-0.151</v>
       </c>
       <c r="I4">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.296</v>
+        <v>-0.218</v>
       </c>
       <c r="K4">
-        <v>0.044</v>
+        <v>0.001</v>
       </c>
       <c r="L4">
-        <v>-0.296</v>
+        <v>-0.218</v>
       </c>
       <c r="M4">
-        <v>0.044</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>0.11</v>
+        <v>0.104</v>
       </c>
       <c r="C5">
-        <v>0.134</v>
+        <v>0.234</v>
       </c>
       <c r="D5">
-        <v>0.186</v>
+        <v>0.126</v>
       </c>
       <c r="E5">
-        <v>0.135</v>
+        <v>0.244</v>
       </c>
       <c r="F5">
-        <v>0.382</v>
+        <v>0.245</v>
       </c>
       <c r="G5">
-        <v>0.08699999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="H5">
-        <v>-0.476</v>
+        <v>-0.14</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="J5">
-        <v>-0.829</v>
+        <v>-0.178</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="L5">
-        <v>-0.829</v>
+        <v>-0.178</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>0.233</v>
+        <v>0.148</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.317</v>
+      </c>
+      <c r="E6">
         <v>0.004</v>
       </c>
-      <c r="D6">
-        <v>0.136</v>
-      </c>
-      <c r="E6">
-        <v>0.083</v>
-      </c>
       <c r="F6">
-        <v>0.078</v>
+        <v>0.414</v>
       </c>
       <c r="G6">
-        <v>0.311</v>
+        <v>0.001</v>
       </c>
       <c r="H6">
-        <v>-0.191</v>
+        <v>-0.114</v>
       </c>
       <c r="I6">
-        <v>0.442</v>
+        <v>0.001</v>
       </c>
       <c r="J6">
-        <v>-0.489</v>
+        <v>-0.196</v>
       </c>
       <c r="K6">
-        <v>0.06</v>
+        <v>0.001</v>
       </c>
       <c r="L6">
-        <v>-0.489</v>
+        <v>-0.196</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>0.148</v>
+        <v>0.192</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D7">
-        <v>0.317</v>
+        <v>0.244</v>
       </c>
       <c r="E7">
-        <v>0.004</v>
+        <v>0.213</v>
       </c>
       <c r="F7">
-        <v>0.414</v>
+        <v>0.259</v>
       </c>
       <c r="G7">
-        <v>0.001</v>
+        <v>0.099</v>
       </c>
       <c r="H7">
-        <v>-0.114</v>
+        <v>-0.4</v>
       </c>
       <c r="I7">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="J7">
-        <v>-0.196</v>
+        <v>-0.296</v>
       </c>
       <c r="K7">
-        <v>0.001</v>
+        <v>0.044</v>
       </c>
       <c r="L7">
-        <v>-0.196</v>
+        <v>-0.296</v>
       </c>
       <c r="M7">
-        <v>0.001</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>0.165</v>
+        <v>0.11</v>
       </c>
       <c r="C8">
-        <v>0.005</v>
+        <v>0.134</v>
       </c>
       <c r="D8">
-        <v>0.204</v>
+        <v>0.186</v>
       </c>
       <c r="E8">
-        <v>0.005</v>
+        <v>0.135</v>
       </c>
       <c r="F8">
-        <v>0.283</v>
+        <v>0.382</v>
       </c>
       <c r="G8">
-        <v>0.02</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H8">
-        <v>-0.06900000000000001</v>
+        <v>-0.476</v>
       </c>
       <c r="I8">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.108</v>
+        <v>-0.829</v>
       </c>
       <c r="K8">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.108</v>
+        <v>-0.829</v>
       </c>
       <c r="M8">
-        <v>0.103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
